--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_textJoin.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_textJoin.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-pub\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openl-repo\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124513E-1DCC-432B-90E2-26D8F294DFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91EDF07-6592-46B9-B6B7-797303A16A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="27855" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="220">
   <si>
     <t>Steps</t>
   </si>
@@ -127,13 +136,606 @@
   </si>
   <si>
     <t>foobarzoo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spreadsheet SpreadsheetResult TestJoinSymbols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ()</t>
+    </r>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st </t>
+  </si>
+  <si>
+    <t>=textJoin(", ", "57777777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd </t>
+  </si>
+  <si>
+    <t>=textJoin(", ", "agh", null, "def", "", "tyz", "tytetetetetetetetetetetetetetetetetetetz", "fhf\\h87@!#$%^&amp;&amp;*()_+:|f&lt;&gt;hf//yiihk/h")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd </t>
+  </si>
+  <si>
+    <t>=textJoin("$", "5777", "def", "","tyz57")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th </t>
+  </si>
+  <si>
+    <t>=textJoin("!", "5777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th </t>
+  </si>
+  <si>
+    <t>=textJoin("@", "5777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6th </t>
+  </si>
+  <si>
+    <t>=textJoin("#", "5777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7th </t>
+  </si>
+  <si>
+    <t>=textJoin("0", "5777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8th </t>
+  </si>
+  <si>
+    <t>=textJoin("&gt;", "5777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9th </t>
+  </si>
+  <si>
+    <t>=textJoin("a", "5777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th </t>
+  </si>
+  <si>
+    <t>=textJoin(":", "5777", "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13th </t>
+  </si>
+  <si>
+    <t>=textJoin(", ", $11th ,$12th)</t>
+  </si>
+  <si>
+    <t>Test  TestJoinSymbols TestJoinSymbolsTest</t>
+  </si>
+  <si>
+    <t>_res_.$1st</t>
+  </si>
+  <si>
+    <t>57777777, def, tyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$2nd</t>
+  </si>
+  <si>
+    <t>_res_.$2d</t>
+  </si>
+  <si>
+    <t>agh, def, tyz, tytetetetetetetetetetetetetetetetetetetz, fhf\h87@!#$%^&amp;&amp;*()_+:|f&lt;&gt;hf//yiihk/h</t>
+  </si>
+  <si>
+    <t>_res_.$3rd</t>
+  </si>
+  <si>
+    <t>5777$def$tyz57</t>
+  </si>
+  <si>
+    <t>_res_.$4th</t>
+  </si>
+  <si>
+    <t>5777!def!tyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$5th</t>
+  </si>
+  <si>
+    <t>5777@def@tyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$6th</t>
+  </si>
+  <si>
+    <t>5777#def#tyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$7th</t>
+  </si>
+  <si>
+    <t>57770def0tyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$8th</t>
+  </si>
+  <si>
+    <t>5777&gt;def&gt;tyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$9th</t>
+  </si>
+  <si>
+    <t>5777adefatyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$10th</t>
+  </si>
+  <si>
+    <t>5777:def:tyz5777</t>
+  </si>
+  <si>
+    <t>_res_.$11th</t>
+  </si>
+  <si>
+    <t>_res_.$12th</t>
+  </si>
+  <si>
+    <t>_res_.$13th</t>
+  </si>
+  <si>
+    <t>Tests with special symbols in Spreadsheet</t>
+  </si>
+  <si>
+    <t>Datatype Person</t>
+  </si>
+  <si>
+    <t>Datatype Gender &lt;String&gt;</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender </t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>monthlySalary</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Person []</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>TaxValue</t>
+  </si>
+  <si>
+    <t>=textJoin("!", person, person)</t>
+  </si>
+  <si>
+    <t>SmartRules String GenderTestJoin (Person person)</t>
+  </si>
+  <si>
+    <t>Test GenderTestJoin GenderTestJoinTest</t>
+  </si>
+  <si>
+    <t>person.name</t>
+  </si>
+  <si>
+    <t>person.gender</t>
+  </si>
+  <si>
+    <t>person.monthlySalary</t>
+  </si>
+  <si>
+    <t>person.age</t>
+  </si>
+  <si>
+    <t>person.children</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>ted</t>
+  </si>
+  <si>
+    <t>Person{ name=ted gender=male monthlySalary=2000.0 age=30 children=null }!Person{ name=ted gender=male monthlySalary=2000.0 age=30 children=null }</t>
+  </si>
+  <si>
+    <t>jane</t>
+  </si>
+  <si>
+    <t>=textJoin("/ ", "agh", null, "\\", "", "tyz", "t\\etetetetetetetetetetetetetetetetetetz", "fhfh/87@!#$%^&amp;&amp;*()_+:|'-=f&lt;&gt;hfh")</t>
+  </si>
+  <si>
+    <t>Test GenderTestJoin2 GenderTestJoin2Test</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>agh/ \/ tyz/ t\etetetetetetetetetetetetetetetetetetz/ fhfh/87@!#$%^&amp;&amp;*()_+:|'-=f&lt;&gt;hfh</t>
+  </si>
+  <si>
+    <t>jane 30 female 3000.0</t>
+  </si>
+  <si>
+    <t>Tests  in SmartRules tables with different format entry parameters</t>
+  </si>
+  <si>
+    <t>Rules String HelloJointest (Integer hour)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>RET1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hour</t>
+  </si>
+  <si>
+    <t>textJoin(" ,", hello,  "World")</t>
+  </si>
+  <si>
+    <t>IntRange</t>
+  </si>
+  <si>
+    <t>String hello</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>0 - 11</t>
+  </si>
+  <si>
+    <t>Good Morning</t>
+  </si>
+  <si>
+    <t>12 - 17</t>
+  </si>
+  <si>
+    <t>Good Afternoon</t>
+  </si>
+  <si>
+    <t>18 - 21</t>
+  </si>
+  <si>
+    <t>Good Evening</t>
+  </si>
+  <si>
+    <t>22 - 23</t>
+  </si>
+  <si>
+    <t>Good Night</t>
+  </si>
+  <si>
+    <t>Test HelloJointest HelloJointesttest</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>Good Morning ,World</t>
+  </si>
+  <si>
+    <t>Good Night ,World</t>
+  </si>
+  <si>
+    <t>Rules DoubleValue ScoreJoin (Person person)</t>
+  </si>
+  <si>
+    <t>textJoin(",", name, age)</t>
+  </si>
+  <si>
+    <t>String nameage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameage </t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>john,35</t>
+  </si>
+  <si>
+    <t>mark,40</t>
+  </si>
+  <si>
+    <t>Test ScoreJoin ScoreJoinTest</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>Tests  in Rules tables (join in Condition and Return)</t>
+  </si>
+  <si>
+    <t>SmartRules String JoinEx (Integer hour)</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Integer hour</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Test JoinEx JoinExTest</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue ScoreJoinEx (Person person)</t>
+  </si>
+  <si>
+    <t>nameage</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Person person</t>
+  </si>
+  <si>
+    <t>Test  ScoreJoinEx  ScoreJoinExTest</t>
+  </si>
+  <si>
+    <t>Tests  in SmartRules tables with External Condition and Return</t>
+  </si>
+  <si>
+    <t>TBasic Policy ValidationPolicy1 (Policy policy)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Checking if No Value</t>
+  </si>
+  <si>
+    <t>if no Effective Date</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>effectiveDate == null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      set current date</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>effectiveDate = new Date()</t>
+  </si>
+  <si>
+    <t>if no Driver</t>
+  </si>
+  <si>
+    <t>driverID==null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      display error</t>
+  </si>
+  <si>
+    <t>error (textJoin("!", "hello",  "Please", "Enter",  "Main Driver for Policy"))</t>
+  </si>
+  <si>
+    <t>if no Policy</t>
+  </si>
+  <si>
+    <t>policyID==null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      display array</t>
+  </si>
+  <si>
+    <t>policyID = textSplit(", ", "abc, def, xyz")</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Datatype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Policy</t>
+    </r>
+  </si>
+  <si>
+    <t>String []</t>
+  </si>
+  <si>
+    <t>policyID</t>
+  </si>
+  <si>
+    <t>driverID</t>
+  </si>
+  <si>
+    <t>vehicleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>isRenewal</t>
+  </si>
+  <si>
+    <t>Data Policy policy1</t>
+  </si>
+  <si>
+    <t>_PK_</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>24424, dgdg44, 4646</t>
+  </si>
+  <si>
+    <t>Test  ValidationPolicy1 ValidationPolicy1Test</t>
+  </si>
+  <si>
+    <t>_res_.policyID</t>
+  </si>
+  <si>
+    <t>_error_</t>
+  </si>
+  <si>
+    <t>&gt;policy1</t>
+  </si>
+  <si>
+    <t>hello!Please!Enter!Main Driver for Policy</t>
+  </si>
+  <si>
+    <t>abc, def, xyz</t>
+  </si>
+  <si>
+    <t>Tests in Tbasic table for join and split</t>
+  </si>
+  <si>
+    <t>=textJoin(" ", name, null, age, gender, monthlySalary, children, "")</t>
+  </si>
+  <si>
+    <t>PeteR</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>PeteR, Tom</t>
+  </si>
+  <si>
+    <t>SmartRules String GenderTestJoin2 (Character  letter, Boolean accident, Gender gender)</t>
+  </si>
+  <si>
+    <t>=textJoin("; ", letter, accident, gender, "def", "","tyz5777")</t>
+  </si>
+  <si>
+    <t>A; true; male; def; tyz5777</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +743,101 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,22 +845,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{C0C09F84-49E7-441E-A18F-1DD6D268E7B1}"/>
+    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{DA854012-B394-4A64-B4DB-293FE6342B58}"/>
+    <cellStyle name="Normal 3 2 2" xfId="2" xr:uid="{CD429D9B-FCB4-4450-970D-F3D970E7CE6F}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{46DADEC1-B6BC-4B5A-AC20-D314EF4C4BF5}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -448,34 +1270,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:J18"/>
+  <dimension ref="B6:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49:L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -489,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -501,7 +1323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -515,7 +1337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -529,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -543,7 +1365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -560,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -577,7 +1399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -585,7 +1407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -593,7 +1415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -601,7 +1423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
@@ -609,7 +1431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -617,10 +1439,1285 @@
         <v>31</v>
       </c>
     </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="H23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="9">
+        <v>2000</v>
+      </c>
+      <c r="K45" s="9">
+        <v>30</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="9">
+        <v>3000</v>
+      </c>
+      <c r="K46" s="9">
+        <v>30</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" t="s">
+        <v>107</v>
+      </c>
+      <c r="I69" t="s">
+        <v>108</v>
+      </c>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+      <c r="J70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71">
+        <v>2000</v>
+      </c>
+      <c r="H71">
+        <v>35</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72">
+        <v>3000</v>
+      </c>
+      <c r="H72">
+        <v>40</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+      <c r="I80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
+        <v>159</v>
+      </c>
+      <c r="I81" t="s">
+        <v>142</v>
+      </c>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" t="s">
+        <v>130</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
+        <v>132</v>
+      </c>
+      <c r="I84">
+        <v>23</v>
+      </c>
+      <c r="J84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+      <c r="I88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" t="s">
+        <v>158</v>
+      </c>
+      <c r="F89" t="s">
+        <v>168</v>
+      </c>
+      <c r="I89" t="s">
+        <v>104</v>
+      </c>
+      <c r="J89" t="s">
+        <v>105</v>
+      </c>
+      <c r="K89" t="s">
+        <v>106</v>
+      </c>
+      <c r="L89" t="s">
+        <v>107</v>
+      </c>
+      <c r="M89" t="s">
+        <v>108</v>
+      </c>
+      <c r="N89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" t="s">
+        <v>146</v>
+      </c>
+      <c r="I90" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90" t="s">
+        <v>110</v>
+      </c>
+      <c r="K90" t="s">
+        <v>111</v>
+      </c>
+      <c r="L90" t="s">
+        <v>97</v>
+      </c>
+      <c r="M90" t="s">
+        <v>99</v>
+      </c>
+      <c r="N90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" t="s">
+        <v>147</v>
+      </c>
+      <c r="I91" t="s">
+        <v>153</v>
+      </c>
+      <c r="J91" t="s">
+        <v>90</v>
+      </c>
+      <c r="K91">
+        <v>2000</v>
+      </c>
+      <c r="L91">
+        <v>35</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" t="s">
+        <v>165</v>
+      </c>
+      <c r="I92" t="s">
+        <v>154</v>
+      </c>
+      <c r="J92" t="s">
+        <v>93</v>
+      </c>
+      <c r="K92">
+        <v>3000</v>
+      </c>
+      <c r="L92">
+        <v>40</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99" t="s">
+        <v>175</v>
+      </c>
+      <c r="I99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" t="s">
+        <v>175</v>
+      </c>
+      <c r="I100" t="s">
+        <v>192</v>
+      </c>
+      <c r="J100" t="s">
+        <v>207</v>
+      </c>
+      <c r="K100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" t="s">
+        <v>182</v>
+      </c>
+      <c r="I102" t="s">
+        <v>204</v>
+      </c>
+      <c r="J102" t="s">
+        <v>207</v>
+      </c>
+      <c r="K102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" t="s">
+        <v>186</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:J23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4559E9-13D4-427E-9BFC-C1E9D6B70246}">
+  <dimension ref="B3:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>6868</v>
+      </c>
+      <c r="F21" s="21">
+        <v>43866</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>68868</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6868</v>
+      </c>
+      <c r="F22" s="21">
+        <v>43866</v>
+      </c>
+      <c r="G22" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
